--- a/jenny_CMF/data/evolution.xlsx
+++ b/jenny_CMF/data/evolution.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3840C8-57DC-4E0C-BF16-12FBF87C3082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Fistule BN PO</t>
   </si>
   <si>
-    <t xml:space="preserve">            Objectifs   Résultats</t>
-  </si>
-  <si>
     <t>Succès</t>
   </si>
   <si>
@@ -36,24 +34,44 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve"> ODF PO</t>
-  </si>
-  <si>
     <t>Eruption dentaire spontanée ou DT</t>
   </si>
   <si>
     <t>Taux de succès</t>
   </si>
   <si>
-    <t>Correction positionnelle PF</t>
+    <t xml:space="preserve"> Prise de greffe </t>
+  </si>
+  <si>
+    <t>Correction endomaxillie</t>
+  </si>
+  <si>
+    <t>20/151</t>
+  </si>
+  <si>
+    <t>1/151</t>
+  </si>
+  <si>
+    <t>21/151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,31 +95,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -109,19 +107,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,107 +393,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:J14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <v>151</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.82779999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="8"/>
+      <c r="B4" s="1">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>151</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>112</v>
-      </c>
-      <c r="E11">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>79</v>
+      </c>
+      <c r="C5" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>129</v>
-      </c>
-      <c r="D13">
-        <v>120</v>
-      </c>
-      <c r="E13">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0.442</v>
+      <c r="D5" s="1">
+        <v>151</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.52300000000000002</v>
       </c>
     </row>
   </sheetData>
